--- a/biology/Histoire de la zoologie et de la botanique/William_Henry_Phelps/William_Henry_Phelps.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Henry_Phelps/William_Henry_Phelps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Henry Phelps est un ornithologue américain, né New York le 14 juin 1875 et mort à Caracas le 8 décembre 1965.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Dudley F. Phelps, homme de loi, et de Louise Lander née Prince. Il montre, très tôt, un vif intérêt pour les oiseaux. Il est diplômé à la Milton Academy, une école privée de Milton (Massachusetts) en 1892 et de l’Harvard College en 1897. Il interrompt ses études pour mener une expédition ornithologique au Venezuela. Il présente les deux nouvelles espèces qu’il découvre à l’American Museum of Natural History, elles seront décrite par Frank Michler Chapman (1864-1945).
 Il rejoint d’abord le Nuttall Ornithological Club puis, en 1895, l’American Ornithologists' Union. Il y rencontre de nombreux ornithologues comme Elliott Coues (1842-1899), Clinton Hart Merriam (1855-1942), Daniel Giraud Elliot (1835-1915), William Dutcher (1846-1920), Edward William Nelson (1855-1934), Charles Emil Bendire (1836-1897), Frederic Augustus Lucas (1852-1929), Joel Asaph Allen (1838-1921), Frank Michler Chapman (1864-1945), Ruthven Deane (1851-1934), Robert Ridgway (1850-1929), William Brewster (1851-1919), Charles Foster Batchelder (1856-1954), Edward Howe Forbush (1858-1929) et Charles Johnson Maynard (1845-1929).
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert Cushman Murphy (1970). In Memoriam : William Henry Phelps, The Auk, 87 (3) : 419-424.  (ISSN 0004-8038)</t>
         </is>
